--- a/views/Descriptivas.xlsx
+++ b/views/Descriptivas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Desktop\Problem_Set_1\views\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741607D-4113-4826-9084-900A2EC0BC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC2F1F-D665-4038-BE3C-B08389B1B6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,10 +89,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -108,12 +109,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,32 +172,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,7 +504,7 @@
   <dimension ref="B3:D23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,143 +522,143 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>36.238879902951901</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>12.0243767452854</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>3.0125353821269699E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.17094084022983999</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.23473513950667199</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.42385459205045201</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>2.5087949858471501</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.97529045450740004</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>1.0311362717347399E-2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>0.101025097209478</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>4.5491306105944198E-3</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>6.7297056809899294E-2</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>9.50262838657501E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>0.29326606288194501</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>0.34563283461382899</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>0.47559819656024699</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>0.45268904164981799</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0.49778180202135702</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="9">
@@ -659,7 +669,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="9">
@@ -670,46 +680,46 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>49.732814395471102</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>73.204399592852297</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>48.020622725434698</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>12.1519621586528</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="11">
         <v>0.232511120097048</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="11">
         <v>0.42245442446715398</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="13">
         <v>9832</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
